--- a/CNPJ Fundos IPSEMC.xlsx
+++ b/CNPJ Fundos IPSEMC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\! IPSEMC\Investimentos\Relatorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago\Documents\GitHub\cotacao-de-fundos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B773FB-E87D-48A6-B777-E021EC958350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09FD6ED-FC10-406D-A6CB-E33C46AF3756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E09F7D1-2296-4A69-B25A-DF18AE166AE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{0E09F7D1-2296-4A69-B25A-DF18AE166AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,12 @@
     <t>CNPJ</t>
   </si>
   <si>
+    <t>42.813.674/0001-55</t>
+  </si>
+  <si>
+    <t>46.134.096/0001-81</t>
+  </si>
+  <si>
     <t>03.543.447/0001-03</t>
   </si>
   <si>
@@ -129,12 +135,6 @@
   </si>
   <si>
     <t>40.190.534/0001-42</t>
-  </si>
-  <si>
-    <t>42.813.674/0001-55</t>
-  </si>
-  <si>
-    <t>46.134.096/0001-81</t>
   </si>
   <si>
     <t>63.375.216/0001-51</t>
@@ -534,180 +534,180 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
